--- a/TKS_Thuc_Tap_V11_Web/wwwroot/FileManagement/Template/Phieu_Nhap_Kho_Template.xlsx
+++ b/TKS_Thuc_Tap_V11_Web/wwwroot/FileManagement/Template/Phieu_Nhap_Kho_Template.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:I1"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -418,19 +418,19 @@
       <c r="E1" t="str">
         <v>Ghi chú</v>
       </c>
+      <c r="F1" t="str">
+        <v>Sản phẩm</v>
+      </c>
       <c r="G1" t="str">
-        <v>Sản phẩm</v>
+        <v>Số lượng</v>
       </c>
       <c r="H1" t="str">
-        <v>Số lượng</v>
-      </c>
-      <c r="I1" t="str">
         <v>Đơn giá</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:I1"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:H1"/>
   </ignoredErrors>
 </worksheet>
 </file>